--- a/biology/Zoologie/Ilamnemacheilus/Ilamnemacheilus.xlsx
+++ b/biology/Zoologie/Ilamnemacheilus/Ilamnemacheilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ilamnemacheilus est un genre de poissons d'eau douce téléostéens de la famille des Nemacheilidae (ordre des Cypriniformes). Ce genre n'est représenté par aucune espèce depuis que Ilamnemacheilus longipinnis a été reclassée dans le genre Oxynoemacheilus sous le taxon Oxynoemacheilus longipinnis (Coad &amp; Nalbant, 2005)[1]. Cette espèce de « loche franche », endémique de l'Iran, a été découverte dans la rivière Meymeh (qui faisait autrefois partie du système du Tigre et de l'Euphrate).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ilamnemacheilus est un genre de poissons d'eau douce téléostéens de la famille des Nemacheilidae (ordre des Cypriniformes). Ce genre n'est représenté par aucune espèce depuis que Ilamnemacheilus longipinnis a été reclassée dans le genre Oxynoemacheilus sous le taxon Oxynoemacheilus longipinnis (Coad &amp; Nalbant, 2005). Cette espèce de « loche franche », endémique de l'Iran, a été découverte dans la rivière Meymeh (qui faisait autrefois partie du système du Tigre et de l'Euphrate).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Ilamnemacheilus Coad (d) &amp; Nalbant, 2005[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Ilamnemacheilus Coad (d) &amp; Nalbant, 2005.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Brian W. Coad et Teodor T. Nalbant, « A new genus and a new species of a remarkable nemacheilid fish from Iran (Pisces: Ostariophysi: Nemacheilidae) », Travaux du Muséum National d'Histoire Naturelle “Grigore Antipa”, Roumanie, vol. 48,‎ 30 décembre 2005, p. 303-308 (ISSN 1223-2254, e-ISSN 2247-0735).</t>
         </is>
